--- a/Assets/08.Tables/Excel/Weapon.xlsx
+++ b/Assets/08.Tables/Excel/Weapon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">speed</t>
   </si>
   <si>
+    <t xml:space="preserve">equip_holder</t>
+  </si>
+  <si>
     <t xml:space="preserve">long</t>
   </si>
   <si>
@@ -47,13 +50,19 @@
     <t xml:space="preserve">float</t>
   </si>
   <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
     <t xml:space="preserve">OneHand</t>
   </si>
   <si>
-    <t xml:space="preserve">OneHnad</t>
+    <t xml:space="preserve">OneHandSheathHolder</t>
   </si>
   <si>
     <t xml:space="preserve">TwoHand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TwoHandSheathHolder</t>
   </si>
   <si>
     <t xml:space="preserve">XXX / YY / ZZZZ</t>
@@ -371,14 +380,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.46"/>
   </cols>
@@ -396,23 +405,27 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +433,7 @@
         <v>20101001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>10</v>
@@ -428,7 +441,9 @@
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +451,7 @@
         <v>20101002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>12</v>
@@ -444,7 +459,9 @@
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +469,7 @@
         <v>20102001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>15</v>
@@ -460,7 +477,9 @@
       <c r="D5" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,31 +521,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/08.Tables/Excel/Weapon.xlsx
+++ b/Assets/08.Tables/Excel/Weapon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">equip_holder</t>
   </si>
   <si>
+    <t xml:space="preserve">able_equip_shield</t>
+  </si>
+  <si>
     <t xml:space="preserve">long</t>
   </si>
   <si>
@@ -53,16 +56,25 @@
     <t xml:space="preserve">string</t>
   </si>
   <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
     <t xml:space="preserve">OneHand</t>
   </si>
   <si>
     <t xml:space="preserve">OneHandSheathHolder</t>
   </si>
   <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
     <t xml:space="preserve">TwoHand</t>
   </si>
   <si>
     <t xml:space="preserve">TwoHandSheathHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">XXX / YY / ZZZZ</t>
@@ -380,7 +392,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,32 +420,36 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>20101001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>10</v>
@@ -442,16 +458,18 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>20101002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>12</v>
@@ -460,16 +478,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>20102001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>15</v>
@@ -478,9 +498,11 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -521,31 +543,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/08.Tables/Excel/Weapon.xlsx
+++ b/Assets/08.Tables/Excel/Weapon.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">equip_holder</t>
   </si>
   <si>
+    <t xml:space="preserve">hand_holder</t>
+  </si>
+  <si>
     <t xml:space="preserve">able_equip_shield</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">OneHandSheathHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RightWeaponHolder</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
@@ -389,10 +395,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +407,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="16.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,25 +429,31 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +461,7 @@
         <v>20101001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>10</v>
@@ -458,10 +470,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +484,7 @@
         <v>20101002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>12</v>
@@ -478,10 +493,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,7 +507,7 @@
         <v>20102001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>15</v>
@@ -498,10 +516,13 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,31 +564,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
